--- a/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_15_.xlsx
+++ b/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_15_.xlsx
@@ -138,7 +138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -177,7 +177,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -191,7 +191,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MSC MEDITERRANEAM SHIPPING CO.</t>
         </is>
       </c>
     </row>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -447,7 +447,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MSC MEDITERRANEAM SHIPPING CO.</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -643,7 +643,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MSC MEDITERRANEAM SHIPPING CO.</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -813,7 +813,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MSC MEDITERRANEAM SHIPPING CO.</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1088,7 +1088,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MSC MEDITERRANEAM SHIPPING CO.</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1261,7 +1261,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MSC MEDITERRANEAM SHIPPING CO.</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1539,7 +1539,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MSC MEDITERRANEAM SHIPPING CO.</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1707,7 +1707,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MSC MEDITERRANEAM SHIPPING CO.</t>
         </is>
       </c>
     </row>
@@ -17388,7 +17388,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -17403,7 +17403,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -17417,7 +17417,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MSC MEDITERRANEAM SHIPPING CO.</t>
         </is>
       </c>
     </row>
@@ -17622,7 +17622,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -17649,7 +17649,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -17663,7 +17663,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MSC MEDITERRANEAM SHIPPING CO.</t>
         </is>
       </c>
     </row>
